--- a/data/evaluation/evaluation_South_Autumn_Potatoes.xlsx
+++ b/data/evaluation/evaluation_South_Autumn_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2672.407109049797</v>
+        <v>2607.503429166889</v>
       </c>
       <c r="C4" t="n">
-        <v>18869054.3705754</v>
+        <v>18852116.70416242</v>
       </c>
       <c r="D4" t="n">
-        <v>4343.852480296194</v>
+        <v>4341.902429138916</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3177089657448102</v>
+        <v>0.3183214192206346</v>
       </c>
     </row>
     <row r="5">
